--- a/meta/en/8-8-1.xlsx
+++ b/meta/en/8-8-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>(0312) 32 46 52</t>
   </si>
   <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The frequency rates of fatal and non-fatal occupational injuries provide information on the number of cases of fatal and non-fatal occupational injury per hours worked by the concerned population during the reference period. It is a measure of the risk of having a fatal or a non-fatal occupational injury based on the duration of exposure to adverse work-related factors.
 Case of fatal occupational injury: the case of a worker fatally injured as a result of one occupational accident, and where death occurred within one year of the day of the accident.</t>
   </si>
@@ -156,6 +153,9 @@
     <t>KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io
 www.uis.unesco.org
 Law of the Kyrgyz Republic of 1 August 2003 №167 «On labour protection»; Decree of the GKR « Regulations on Recording and Investigating Occupational Accidents» of 27 February 2001 №64;</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
